--- a/小游戏文档/11月小游戏收入.xlsx
+++ b/小游戏文档/11月小游戏收入.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\LayaWorkspace\小游戏文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0356625E-5F28-4F00-9F4C-0E1180A7D29B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -74,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李志强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邢瑞瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,11 +88,19 @@
     <t>到账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,6 +163,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,7 +243,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -399,7 +466,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-698C-4F30-B956-02109AADE32F}"/>
             </c:ext>
@@ -415,11 +482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562387408"/>
-        <c:axId val="444013961"/>
+        <c:axId val="1843689344"/>
+        <c:axId val="1843689888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562387408"/>
+        <c:axId val="1843689344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +528,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444013961"/>
+        <c:crossAx val="1843689888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444013961"/>
+        <c:axId val="1843689888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562387408"/>
+        <c:crossAx val="1843689344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,7 +1199,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1228,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1410,11 +1477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2725,20 +2792,20 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <f>SUM(B33,D33,G33,J33)</f>
         <v>4652.84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>3882</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>3291</v>
@@ -2746,14 +2813,14 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <f>SUM(C33,E33,F33,H33,I33)</f>
         <v>2950</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>2520</v>
@@ -2761,7 +2828,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <f>SUM(M33,O33,K33)</f>
@@ -2771,7 +2838,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F38">
         <f>SUM(F35,D36,B37)</f>
